--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H2">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I2">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J2">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N2">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q2">
-        <v>16.57333848944736</v>
+        <v>173.271250165604</v>
       </c>
       <c r="R2">
-        <v>16.57333848944736</v>
+        <v>1559.441251490436</v>
       </c>
       <c r="S2">
-        <v>0.1017248880090587</v>
+        <v>0.3401235081836233</v>
       </c>
       <c r="T2">
-        <v>0.1017248880090587</v>
+        <v>0.3401235081836234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H3">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I3">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J3">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N3">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q3">
-        <v>71.81899230439743</v>
+        <v>175.7515083683769</v>
       </c>
       <c r="R3">
-        <v>71.81899230439743</v>
+        <v>1581.763575315392</v>
       </c>
       <c r="S3">
-        <v>0.440815165498493</v>
+        <v>0.3449921411525785</v>
       </c>
       <c r="T3">
-        <v>0.440815165498493</v>
+        <v>0.3449921411525785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.13556485091955</v>
+        <v>5.190862666666667</v>
       </c>
       <c r="H4">
-        <v>2.13556485091955</v>
+        <v>15.572588</v>
       </c>
       <c r="I4">
-        <v>0.7837381362674684</v>
+        <v>0.8740249884703439</v>
       </c>
       <c r="J4">
-        <v>0.7837381362674684</v>
+        <v>0.874024988470344</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q4">
-        <v>39.29674976127629</v>
+        <v>96.23726843973245</v>
       </c>
       <c r="R4">
-        <v>39.29674976127629</v>
+        <v>866.1354159575922</v>
       </c>
       <c r="S4">
-        <v>0.2411980827599167</v>
+        <v>0.1889093391341423</v>
       </c>
       <c r="T4">
-        <v>0.2411980827599167</v>
+        <v>0.1889093391341423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.589280032972562</v>
+        <v>0.100996</v>
       </c>
       <c r="H5">
-        <v>0.589280032972562</v>
+        <v>0.302988</v>
       </c>
       <c r="I5">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="J5">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N5">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q5">
-        <v>4.573187017627535</v>
+        <v>3.371251428803999</v>
       </c>
       <c r="R5">
-        <v>4.573187017627535</v>
+        <v>30.341262859236</v>
       </c>
       <c r="S5">
-        <v>0.02806959729380117</v>
+        <v>0.006617611760969959</v>
       </c>
       <c r="T5">
-        <v>0.02806959729380117</v>
+        <v>0.006617611760969959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.589280032972562</v>
+        <v>0.100996</v>
       </c>
       <c r="H6">
-        <v>0.589280032972562</v>
+        <v>0.302988</v>
       </c>
       <c r="I6">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="J6">
-        <v>0.2162618637325317</v>
+        <v>0.0170054639091879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N6">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q6">
-        <v>19.8174727098399</v>
+        <v>3.419508563221334</v>
       </c>
       <c r="R6">
-        <v>19.8174727098399</v>
+        <v>30.775577068992</v>
       </c>
       <c r="S6">
-        <v>0.1216369407596806</v>
+        <v>0.006712338300065309</v>
       </c>
       <c r="T6">
-        <v>0.1216369407596806</v>
+        <v>0.006712338300065309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.100996</v>
+      </c>
+      <c r="H7">
+        <v>0.302988</v>
+      </c>
+      <c r="I7">
+        <v>0.0170054639091879</v>
+      </c>
+      <c r="J7">
+        <v>0.0170054639091879</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>18.53974466666667</v>
+      </c>
+      <c r="N7">
+        <v>55.61923400000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2161372290565261</v>
+      </c>
+      <c r="P7">
+        <v>0.2161372290565261</v>
+      </c>
+      <c r="Q7">
+        <v>1.872440052354666</v>
+      </c>
+      <c r="R7">
+        <v>16.851960471192</v>
+      </c>
+      <c r="S7">
+        <v>0.003675513848152632</v>
+      </c>
+      <c r="T7">
+        <v>0.003675513848152632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.941521</v>
+      </c>
+      <c r="I8">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J8">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>33.380049</v>
+      </c>
+      <c r="N8">
+        <v>100.140147</v>
+      </c>
+      <c r="O8">
+        <v>0.3891462059670435</v>
+      </c>
+      <c r="P8">
+        <v>0.3891462059670435</v>
+      </c>
+      <c r="Q8">
+        <v>21.602688704843</v>
+      </c>
+      <c r="R8">
+        <v>194.424198343587</v>
+      </c>
+      <c r="S8">
+        <v>0.04240508602245025</v>
+      </c>
+      <c r="T8">
+        <v>0.04240508602245025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.589280032972562</v>
-      </c>
-      <c r="H7">
-        <v>0.589280032972562</v>
-      </c>
-      <c r="I7">
-        <v>0.2162618637325317</v>
-      </c>
-      <c r="J7">
-        <v>0.2162618637325317</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>18.4011034571746</v>
-      </c>
-      <c r="N7">
-        <v>18.4011034571746</v>
-      </c>
-      <c r="O7">
-        <v>0.3077534084389666</v>
-      </c>
-      <c r="P7">
-        <v>0.3077534084389666</v>
-      </c>
-      <c r="Q7">
-        <v>10.84340285197537</v>
-      </c>
-      <c r="R7">
-        <v>10.84340285197537</v>
-      </c>
-      <c r="S7">
-        <v>0.06655532567904997</v>
-      </c>
-      <c r="T7">
-        <v>0.06655532567904997</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.941521</v>
+      </c>
+      <c r="I9">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J9">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.85786133333334</v>
+      </c>
+      <c r="N9">
+        <v>101.573584</v>
+      </c>
+      <c r="O9">
+        <v>0.3947165649764305</v>
+      </c>
+      <c r="P9">
+        <v>0.3947165649764305</v>
+      </c>
+      <c r="Q9">
+        <v>21.91191626458489</v>
+      </c>
+      <c r="R9">
+        <v>197.207246381264</v>
+      </c>
+      <c r="S9">
+        <v>0.04301208552378676</v>
+      </c>
+      <c r="T9">
+        <v>0.04301208552378675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6471736666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.941521</v>
+      </c>
+      <c r="I10">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="J10">
+        <v>0.1089695476204681</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.53974466666667</v>
+      </c>
+      <c r="N10">
+        <v>55.61923400000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2161372290565261</v>
+      </c>
+      <c r="P10">
+        <v>0.2161372290565261</v>
+      </c>
+      <c r="Q10">
+        <v>11.99843453499044</v>
+      </c>
+      <c r="R10">
+        <v>107.985910814914</v>
+      </c>
+      <c r="S10">
+        <v>0.02355237607423115</v>
+      </c>
+      <c r="T10">
+        <v>0.02355237607423115</v>
       </c>
     </row>
   </sheetData>
